--- a/cfs_3_0.6.xlsx
+++ b/cfs_3_0.6.xlsx
@@ -4422,7 +4422,7 @@
         <v>61</v>
       </c>
       <c r="V52" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="W52" t="n">
         <v>3</v>
@@ -4729,7 +4729,7 @@
         <v>4</v>
       </c>
       <c r="W56" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X56" t="n">
         <v>3</v>
@@ -4863,7 +4863,7 @@
         <v>3</v>
       </c>
       <c r="Q58" t="n">
-        <v>56.5</v>
+        <v>56</v>
       </c>
       <c r="R58" t="n">
         <v>51</v>
@@ -6021,7 +6021,7 @@
         <v>6</v>
       </c>
       <c r="W73" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X73" t="n">
         <v>3</v>
@@ -6246,7 +6246,7 @@
         <v>61</v>
       </c>
       <c r="V76" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="W76" t="n">
         <v>3</v>
@@ -6477,7 +6477,7 @@
         <v>5</v>
       </c>
       <c r="W79" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X79" t="n">
         <v>3</v>
@@ -6629,7 +6629,7 @@
         <v>4</v>
       </c>
       <c r="W81" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X81" t="n">
         <v>3</v>
@@ -7085,7 +7085,7 @@
         <v>7</v>
       </c>
       <c r="W87" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="X87" t="n">
         <v>3</v>
